--- a/nora_faq.xlsx
+++ b/nora_faq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanvarmavadapalli/Documents/novo_project/nora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF72496-0ECD-104B-A2FE-C552E7A45843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F6F23-8A74-A848-9348-D62C7AF6E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42360" yWindow="5500" windowWidth="27640" windowHeight="16940" xr2:uid="{25B3EF92-FE08-0544-87D2-183ABB3DEB96}"/>
+    <workbookView xWindow="74400" yWindow="980" windowWidth="38400" windowHeight="21600" xr2:uid="{25B3EF92-FE08-0544-87D2-183ABB3DEB96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Metadata</t>
-  </si>
-  <si>
-    <t>QnaId</t>
   </si>
   <si>
     <t>Synonyms</t>
@@ -86,130 +83,64 @@
     <t>How do I open HALOPV</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV02</t>
-  </si>
-  <si>
     <t>"HALOPV","HALO","HALO PV"</t>
   </si>
   <si>
     <t>Where do i go to HALOPV</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV03</t>
-  </si>
-  <si>
     <t>Where can I find HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV04</t>
-  </si>
-  <si>
     <t>How can I access HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV05</t>
-  </si>
-  <si>
     <t>What is the location of HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV06</t>
-  </si>
-  <si>
     <t>Where is the place for HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV07</t>
-  </si>
-  <si>
     <t>How do I open HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV08</t>
-  </si>
-  <si>
     <t>How do I goto HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV09</t>
-  </si>
-  <si>
     <t>What is the access point for HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV10</t>
-  </si>
-  <si>
     <t>Where can I locate HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV11</t>
-  </si>
-  <si>
     <t>How do I access HALO PV?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV12</t>
-  </si>
-  <si>
     <t>What is the location of HALO?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV13</t>
-  </si>
-  <si>
     <t>Where can I find HALO?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV14</t>
-  </si>
-  <si>
     <t>How can I access HALO?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV15</t>
-  </si>
-  <si>
-    <t>freetextinput:HaloPV16</t>
-  </si>
-  <si>
     <t>Where is the place for HALO?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV17</t>
-  </si>
-  <si>
     <t>How do I open HALO?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV18</t>
-  </si>
-  <si>
     <t>How do I goto HALO?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV19</t>
-  </si>
-  <si>
     <t>What is the access point for HALO?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV20</t>
-  </si>
-  <si>
     <t>Where can I locate HALO?</t>
   </si>
   <si>
-    <t>freetextinput:HaloPV21</t>
-  </si>
-  <si>
     <t>How do I access HALO?</t>
-  </si>
-  <si>
-    <t>freetextinput:HaloPV22</t>
-  </si>
-  <si>
-    <t>freetextinput:HaloPV23</t>
   </si>
 </sst>
 </file>
@@ -237,17 +168,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -270,14 +201,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,20 +542,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF913042-2C6D-5F48-ADF2-B9DE2EAB4F58}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.33203125" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,411 +567,340 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>